--- a/reports/Краснова О.В.xlsx
+++ b/reports/Краснова О.В.xlsx
@@ -236,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,36 +250,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -563,7 +560,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,22 +572,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -609,9 +606,9 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="9">
         <f>SUM(E2:E18)</f>
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -622,8 +619,8 @@
       <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="10">
+      <c r="D3" s="11"/>
+      <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="F3" s="14"/>
@@ -636,60 +633,66 @@
       <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="10">
+      <c r="D4" s="12"/>
+      <c r="E4" s="1">
         <v>6</v>
       </c>
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="10">
+      <c r="D5" s="12"/>
+      <c r="E5" s="6">
         <v>2</v>
       </c>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>8</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="6">
+        <v>8</v>
+      </c>
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -700,8 +703,8 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10">
+      <c r="D9" s="12"/>
+      <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="15"/>
@@ -714,8 +717,10 @@
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -726,8 +731,10 @@
       <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
       <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -738,8 +745,10 @@
       <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -750,20 +759,24 @@
       <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
       <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -771,11 +784,13 @@
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>6</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6">
+        <v>6</v>
+      </c>
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -786,8 +801,10 @@
       <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -798,9 +815,9 @@
       <c r="C17" s="1">
         <v>6</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="10">
-        <v>2</v>
+      <c r="D17" s="12"/>
+      <c r="E17" s="1">
+        <v>6</v>
       </c>
       <c r="F17" s="15"/>
     </row>
@@ -812,8 +829,10 @@
       <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
       <c r="F18" s="15"/>
     </row>
   </sheetData>
